--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_46.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_46.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,268 +488,266 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_98</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_179</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(111.28, 124.16)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(38.62, 46.84)]</t>
+          <t>[('0:00:45.260000', '0:00:57.580000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:00.220000', '0:00:08.880000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_220</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_69</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4033613445378151</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>[['D', 'D', 'D/7', 'D/6']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(105.4, 123.26)]</t>
+          <t>[['E/5', 'E/#4', 'E/4', 'E']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(11.94, 17.6)]</t>
+          <t>[('0:00:00.325509', '0:00:03.756394')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:00.440395', '0:00:07.659045')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_200</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D', 'A']]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(131.46, 133.76)]</t>
+          <t>[['E:7', 'A', 'D', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(27.963197, 36.229501)]</t>
+          <t>[('0:00:53.960000', '0:01:05.560000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
+          <t>[('0:00:00.446618', '0:00:18.139715')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(12.42, 27.08), (55.72, 64.64), (0.82, 6.76)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(34.56, 36.42), (34.34, 35.88), (8.3, 12.96)]</t>
+          <t>[('0:01:14.700000', '0:01:34.120000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:36.320000', '0:00:51.920000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(100.24, 104.56)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(121.74, 128.48)]</t>
+          <t>[('0:00:25.260000', '0:00:45.540000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:16.840000', '0:00:21.540000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1334681496461072</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(1.36, 24.16)]</t>
+          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(0.3, 20.7)]</t>
+          <t>[('0:00:09.480000', '0:00:25.940000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:04.860000', '0:00:09.640000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -753,450 +756,418 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2461538461538462</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8), (31.74, 33.88)]</t>
+          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(12.26, 25.04), (65.26, 71.04)]</t>
+          <t>[('0:01:15.560000', '0:01:35.680000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:01:53.140000', '0:01:54.880000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2113636363636364</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'A']]</t>
-        </is>
+          <t>isophonics_32</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_223</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.141025641025641</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
+          <t>[['D/5', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[['A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(7.76, 14.32)]</t>
+          <t>[('0:02:04.702789', '0:02:10.612267')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+          <t>[('0:00:00.440395', '0:00:07.142059')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>isophonics_231</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_205</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.07968631419175309</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D', 'D/b7', 'D/6', 'D/5', 'G']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[['E', 'E/2', 'E/3', 'E/4', 'A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(41.38, 43.34)]</t>
+          <t>[('0:00:35.486462', '0:00:41.361111')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:01:03.419996', '0:01:09.714376')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1393983859134263</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'E', 'A', 'D']]</t>
-        </is>
+          <t>isophonics_32</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_22</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.09999999999999999</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'A', 'D', 'G']]</t>
+          <t>[['A', 'D', 'D/b7'], ['D', 'D/b7', 'G/3']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(51.315598, 61.516031)]</t>
+          <t>[['F#', 'B', 'B/7'], ['B', 'B/3', 'E']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(32.421428, 40.304603)]</t>
+          <t>[('0:00:31.439841', '0:00:35.781972'), ('0:00:32.879478', '0:00:37.291269')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+          <t>[('0:00:04.940612', '0:00:06.577619'), ('0:02:33.617981', '0:02:41.988775')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(31.74, 33.88)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(34.86, 39.7)]</t>
+          <t>[('0:00:24.260000', '0:00:27.200000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:57.420000', '0:01:00.320000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1229096989966555</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F/7', 'D:min', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7556818181818181</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A', 'F#:min', 'B']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(17.079669, 20.130022)]</t>
+          <t>[['C', 'G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(35.172993, 42.127369)]</t>
+          <t>[('0:00:25.180000', '0:00:55.620000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
+          <t>[('0:01:10.519024', '0:01:22.732721')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(93.3, 103.06)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(96.74, 108.82)]</t>
+          <t>[('0:02:40.020000', '0:02:44.860000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:02:30.200000', '0:02:34.940000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min'], ['A:min', 'E:maj', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.75</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(83.1, 90.02), (13.5, 21.9)]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(8.46, 13.46), (0.24, 5.08)]</t>
+          <t>[('0:00:54.180000', '0:01:05.360000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(2.56, 6.82)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(11.5, 28.96)]</t>
+          <t>[('0:01:19.120000', '0:01:39.320000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:21.620000', '0:01:43.560000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(13.6, 17.78), (31.34, 33.52)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(12.74, 26.98), (71.7, 78.4)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
